--- a/BusinessConnectManagement/Uploads/ExcelTemplate/Student.xlsx
+++ b/BusinessConnectManagement/Uploads/ExcelTemplate/Student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Captone Project 2022-2023\CaptoneSprint7\CapstoneProject\BusinessConnectManagement\Uploads\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489E973-B542-4AAA-9837-E8FAFBD98BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A421C2B-22C5-4095-8CF3-F4EE54F67BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>Chuyên nghành</t>
   </si>
   <si>
-    <t>Doanh Nghiệp</t>
+    <t>Student</t>
   </si>
 </sst>
 </file>
